--- a/test1/WeaponFrames.xlsx
+++ b/test1/WeaponFrames.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>__default__</t>
   </si>
   <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
     <t>30,0,0</t>
   </si>
   <si>
@@ -31,7 +34,91 @@
     <t>__name__</t>
   </si>
   <si>
-    <t>30,10,15</t>
+    <t>59,0,0</t>
+  </si>
+  <si>
+    <t>41,0,0</t>
+  </si>
+  <si>
+    <t>39,0,0</t>
+  </si>
+  <si>
+    <t>33,0,0</t>
+  </si>
+  <si>
+    <t>35,0,0</t>
+  </si>
+  <si>
+    <t>18,0,0</t>
+  </si>
+  <si>
+    <t>38,18,23</t>
+  </si>
+  <si>
+    <t>54,20,25</t>
+  </si>
+  <si>
+    <t>55,20,30</t>
+  </si>
+  <si>
+    <t>17,8,15</t>
+  </si>
+  <si>
+    <t>39,13,21</t>
+  </si>
+  <si>
+    <t>70,50,65</t>
+  </si>
+  <si>
+    <t>70,15,20</t>
+  </si>
+  <si>
+    <t>40,23,30</t>
+  </si>
+  <si>
+    <t>15,10,13</t>
+  </si>
+  <si>
+    <t>51,21,25</t>
+  </si>
+  <si>
+    <t>55,0,0</t>
+  </si>
+  <si>
+    <t>40,0,0</t>
+  </si>
+  <si>
+    <t>37,0,0</t>
+  </si>
+  <si>
+    <t>38,0,0</t>
+  </si>
+  <si>
+    <t>22,0,0</t>
+  </si>
+  <si>
+    <t>68,23,32</t>
+  </si>
+  <si>
+    <t>95,29,35</t>
+  </si>
+  <si>
+    <t>95,28,35</t>
+  </si>
+  <si>
+    <t>40,27,33</t>
+  </si>
+  <si>
+    <t>42,40,15</t>
+  </si>
+  <si>
+    <t>40,26,33</t>
+  </si>
+  <si>
+    <t>20,8,15</t>
+  </si>
+  <si>
+    <t>66,16,22</t>
   </si>
   <si>
     <t>武器ID</t>
@@ -40,13 +127,79 @@
     <t>Idle</t>
   </si>
   <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>AttackLite</t>
-  </si>
-  <si>
-    <t>AttackHeavy</t>
+    <t>WalkForward</t>
+  </si>
+  <si>
+    <t>WalkBack</t>
+  </si>
+  <si>
+    <t>WalkLeft</t>
+  </si>
+  <si>
+    <t>WalkRight</t>
+  </si>
+  <si>
+    <t>RunForward</t>
+  </si>
+  <si>
+    <t>RunBack</t>
+  </si>
+  <si>
+    <t>RunLeft</t>
+  </si>
+  <si>
+    <t>RunRight</t>
+  </si>
+  <si>
+    <t>SingleAtk1</t>
+  </si>
+  <si>
+    <t>SingleAtk2</t>
+  </si>
+  <si>
+    <t>SingAtk3</t>
+  </si>
+  <si>
+    <t>SingAtk4</t>
+  </si>
+  <si>
+    <t>SingAtk5</t>
+  </si>
+  <si>
+    <t>TwoCombo1Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo1Part2</t>
+  </si>
+  <si>
+    <t>TwoCombo2Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo2Part2</t>
+  </si>
+  <si>
+    <t>TwoCombo3Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo3Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part1</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part3</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part1</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part3</t>
   </si>
   <si>
     <t>BreakLite</t>
@@ -55,7 +208,16 @@
     <t>BreakHeavy</t>
   </si>
   <si>
+    <t>1:GreatSword</t>
+  </si>
+  <si>
     <t>总帧数,攻击起始,攻击结束</t>
+  </si>
+  <si>
+    <t>2:Axe</t>
+  </si>
+  <si>
+    <t>3:Shield</t>
   </si>
 </sst>
 </file>
@@ -63,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -103,6 +265,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -110,28 +279,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +302,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -155,45 +348,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,30 +386,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +635,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,9 +661,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,19 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,130 +731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,7 +959,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1047,23 +1209,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.6636363636364" style="3" customWidth="1"/>
-    <col min="2" max="4" width="20.6636363636364" style="3"/>
-    <col min="5" max="5" width="22.0909090909091" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6636363636364" style="3"/>
-    <col min="7" max="7" width="32" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="20.6636363636364" style="3"/>
+    <col min="2" max="28" width="20.6636363636364" style="3"/>
+    <col min="29" max="29" width="32" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1085,100 +1245,390 @@
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:7">
+    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="8">
-        <v>101</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="8">
-        <v>201</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="8">
-        <v>202</v>
+        <v>1013</v>
       </c>
       <c r="F3" s="8">
+        <v>1014</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1021</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1022</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1023</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1024</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2013</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2014</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2015</v>
+      </c>
+      <c r="P3" s="8">
+        <v>20211</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>20212</v>
+      </c>
+      <c r="R3" s="8">
+        <v>20221</v>
+      </c>
+      <c r="S3" s="8">
+        <v>20222</v>
+      </c>
+      <c r="T3" s="8">
+        <v>20231</v>
+      </c>
+      <c r="U3" s="8">
+        <v>20232</v>
+      </c>
+      <c r="V3" s="8">
+        <v>20311</v>
+      </c>
+      <c r="W3" s="8">
+        <v>20312</v>
+      </c>
+      <c r="X3" s="8">
+        <v>20313</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>20321</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>20322</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>20323</v>
+      </c>
+      <c r="AB3" s="8">
         <v>301</v>
       </c>
-      <c r="G3" s="3">
+      <c r="AC3" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:7">
+    <row r="4" ht="15.5" spans="1:29">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:7">
+    <row r="5" ht="15.5" spans="1:29">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:29">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1186,33 +1636,134 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:7">
+    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:29">
       <c r="A8" s="10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="2:2">
+    <row r="9" ht="15.5" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/test1/WeaponFrames.xlsx
+++ b/test1/WeaponFrames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>__default__</t>
   </si>
@@ -49,6 +49,12 @@
     <t>35,0,0</t>
   </si>
   <si>
+    <t>25,0,0</t>
+  </si>
+  <si>
+    <t>22,0,0</t>
+  </si>
+  <si>
     <t>18,0,0</t>
   </si>
   <si>
@@ -94,7 +100,10 @@
     <t>38,0,0</t>
   </si>
   <si>
-    <t>22,0,0</t>
+    <t>52,0,0</t>
+  </si>
+  <si>
+    <t>49,0,0</t>
   </si>
   <si>
     <t>68,23,32</t>
@@ -137,6 +146,12 @@
   </si>
   <si>
     <t>WalkRight</t>
+  </si>
+  <si>
+    <t>TurnLeftStand</t>
+  </si>
+  <si>
+    <t>TurnRightStand</t>
   </si>
   <si>
     <t>RunForward</t>
@@ -225,9 +240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -265,13 +280,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -280,6 +288,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,46 +354,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,68 +422,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,55 +432,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,127 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +623,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,32 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,30 +705,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,130 +746,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -959,7 +974,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1209,21 +1224,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.6636363636364" style="3" customWidth="1"/>
-    <col min="2" max="28" width="20.6636363636364" style="3"/>
-    <col min="29" max="29" width="32" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="20.6636363636364" style="3"/>
+    <col min="2" max="30" width="20.6636363636364" style="3"/>
+    <col min="31" max="31" width="32" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:29">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:31">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1306,13 +1321,19 @@
         <v>1</v>
       </c>
       <c r="AB1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:29">
+    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:31">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1397,11 +1418,17 @@
       <c r="AB2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:29">
+    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:31">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1421,76 +1448,82 @@
         <v>1014</v>
       </c>
       <c r="G3" s="8">
+        <v>1015</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1016</v>
+      </c>
+      <c r="I3" s="8">
         <v>1021</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="8">
         <v>1022</v>
       </c>
-      <c r="I3" s="8">
+      <c r="K3" s="8">
         <v>1023</v>
       </c>
-      <c r="J3" s="8">
+      <c r="L3" s="8">
         <v>1024</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="8">
         <v>2011</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>2012</v>
       </c>
-      <c r="M3" s="8">
+      <c r="O3" s="8">
         <v>2013</v>
       </c>
-      <c r="N3" s="8">
+      <c r="P3" s="8">
         <v>2014</v>
       </c>
-      <c r="O3" s="8">
+      <c r="Q3" s="8">
         <v>2015</v>
       </c>
-      <c r="P3" s="8">
+      <c r="R3" s="8">
         <v>20211</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="S3" s="8">
         <v>20212</v>
       </c>
-      <c r="R3" s="8">
+      <c r="T3" s="8">
         <v>20221</v>
       </c>
-      <c r="S3" s="8">
+      <c r="U3" s="8">
         <v>20222</v>
       </c>
-      <c r="T3" s="8">
+      <c r="V3" s="8">
         <v>20231</v>
       </c>
-      <c r="U3" s="8">
+      <c r="W3" s="8">
         <v>20232</v>
       </c>
-      <c r="V3" s="8">
+      <c r="X3" s="8">
         <v>20311</v>
       </c>
-      <c r="W3" s="8">
+      <c r="Y3" s="8">
         <v>20312</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Z3" s="8">
         <v>20313</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="AA3" s="8">
         <v>20321</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AB3" s="8">
         <v>20322</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AC3" s="8">
         <v>20323</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AD3" s="8">
         <v>301</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AE3" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:29">
+    <row r="4" ht="15.5" spans="1:31">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1512,123 +1545,135 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:29">
+    <row r="5" ht="15.5" spans="1:31">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="O5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:29">
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:31">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1658,112 +1703,120 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:29">
+    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:31">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/test1/WeaponFrames.xlsx
+++ b/test1/WeaponFrames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>__default__</t>
   </si>
@@ -34,6 +34,99 @@
     <t>__name__</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>20211</t>
+  </si>
+  <si>
+    <t>20212</t>
+  </si>
+  <si>
+    <t>20221</t>
+  </si>
+  <si>
+    <t>20222</t>
+  </si>
+  <si>
+    <t>20231</t>
+  </si>
+  <si>
+    <t>20232</t>
+  </si>
+  <si>
+    <t>20311</t>
+  </si>
+  <si>
+    <t>20312</t>
+  </si>
+  <si>
+    <t>20313</t>
+  </si>
+  <si>
+    <t>20321</t>
+  </si>
+  <si>
+    <t>20322</t>
+  </si>
+  <si>
+    <t>20323</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>59,0,0</t>
   </si>
   <si>
@@ -88,6 +181,15 @@
     <t>51,21,25</t>
   </si>
   <si>
+    <t>38,0,0</t>
+  </si>
+  <si>
+    <t>32,0,0</t>
+  </si>
+  <si>
+    <t>72,0,0</t>
+  </si>
+  <si>
     <t>55,0,0</t>
   </si>
   <si>
@@ -97,9 +199,6 @@
     <t>37,0,0</t>
   </si>
   <si>
-    <t>38,0,0</t>
-  </si>
-  <si>
     <t>52,0,0</t>
   </si>
   <si>
@@ -130,6 +229,12 @@
     <t>66,16,22</t>
   </si>
   <si>
+    <t>53,0,0</t>
+  </si>
+  <si>
+    <t>48,0,0</t>
+  </si>
+  <si>
     <t>武器ID</t>
   </si>
   <si>
@@ -221,6 +326,9 @@
   </si>
   <si>
     <t>BreakHeavy</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
   <si>
     <t>1:GreatSword</t>
@@ -240,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,14 +388,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,62 +492,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,8 +507,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,45 +530,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,19 +540,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,163 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,17 +736,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -659,17 +760,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,22 +793,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,139 +845,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,6 +1012,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -974,7 +1091,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1224,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6636363636364" defaultRowHeight="14.5"/>
@@ -1238,7 +1355,7 @@
     <col min="32" max="16384" width="20.6636363636364" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:31">
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:32">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1332,8 +1449,11 @@
       <c r="AE1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AF1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1427,250 +1547,262 @@
       <c r="AE2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="AF2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1011</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1012</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1013</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1014</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1015</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1016</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1021</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1022</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1023</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1024</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2011</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2012</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2013</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2014</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2015</v>
-      </c>
-      <c r="R3" s="8">
-        <v>20211</v>
-      </c>
-      <c r="S3" s="8">
-        <v>20212</v>
-      </c>
-      <c r="T3" s="8">
-        <v>20221</v>
-      </c>
-      <c r="U3" s="8">
-        <v>20222</v>
-      </c>
-      <c r="V3" s="8">
-        <v>20231</v>
-      </c>
-      <c r="W3" s="8">
-        <v>20232</v>
-      </c>
-      <c r="X3" s="8">
-        <v>20311</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>20312</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>20313</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>20321</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>20322</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>20323</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>301</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>302</v>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:31">
+    <row r="4" ht="15.5" spans="1:32">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:31">
+    <row r="5" ht="15.5" spans="1:32">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:31">
@@ -1706,117 +1838,120 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:31">
+    <row r="8" s="2" customFormat="1" ht="15.5" spans="1:32">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>68</v>
+        <v>103</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
